--- a/Documentation/Diagrams/GanttChart.xlsx
+++ b/Documentation/Diagrams/GanttChart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hayden\Desktop\AIT-TravelWebsite\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hayden\Documents\SourceTree\AIT-TravelWebsite\Documentation\Diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9777FBEB-2725-4D71-A965-2F71E476CB59}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3970825B-AC60-49FC-B2CE-6E8FAD16C211}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,72 +40,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>PERIODS</t>
   </si>
   <si>
     <t>ACTIVITY</t>
-  </si>
-  <si>
-    <t>Activity 07</t>
-  </si>
-  <si>
-    <t>Activity 08</t>
-  </si>
-  <si>
-    <t>Activity 09</t>
-  </si>
-  <si>
-    <t>Activity 10</t>
-  </si>
-  <si>
-    <t>Activity 11</t>
-  </si>
-  <si>
-    <t>Activity 12</t>
-  </si>
-  <si>
-    <t>Activity 13</t>
-  </si>
-  <si>
-    <t>Activity 14</t>
-  </si>
-  <si>
-    <t>Activity 15</t>
-  </si>
-  <si>
-    <t>Activity 16</t>
-  </si>
-  <si>
-    <t>Activity 17</t>
-  </si>
-  <si>
-    <t>Activity 18</t>
-  </si>
-  <si>
-    <t>Activity 19</t>
-  </si>
-  <si>
-    <t>Activity 20</t>
-  </si>
-  <si>
-    <t>Activity 21</t>
-  </si>
-  <si>
-    <t>Activity 22</t>
-  </si>
-  <si>
-    <t>Activity 23</t>
-  </si>
-  <si>
-    <t>Activity 24</t>
-  </si>
-  <si>
-    <t>Activity 25</t>
-  </si>
-  <si>
-    <t>Activity 26</t>
   </si>
   <si>
     <r>
@@ -227,6 +167,30 @@
   </si>
   <si>
     <t>Design Criteria</t>
+  </si>
+  <si>
+    <t>Sketches and Storyboarding</t>
+  </si>
+  <si>
+    <t>Site Map Design</t>
+  </si>
+  <si>
+    <t>Sketch Number One Analysis</t>
+  </si>
+  <si>
+    <t>Sketch Number Two Analysis</t>
+  </si>
+  <si>
+    <t>Gantt Chart</t>
+  </si>
+  <si>
+    <t>Flow Chart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Website </t>
+  </si>
+  <si>
+    <t>Analysis Questions and Evaluation</t>
   </si>
 </sst>
 </file>
@@ -526,7 +490,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -640,6 +604,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1053,7 +1020,7 @@
   <dimension ref="B1:BO30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="30" customHeight="1"/>
@@ -1067,7 +1034,7 @@
   <sheetData>
     <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1">
       <c r="B1" s="20" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
@@ -1079,21 +1046,21 @@
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1">
       <c r="B2" s="24" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
       <c r="G2" s="5" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H2" s="13">
         <v>1</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="30" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="L2" s="31"/>
       <c r="M2" s="31"/>
@@ -1101,21 +1068,21 @@
       <c r="O2" s="32"/>
       <c r="P2" s="15"/>
       <c r="Q2" s="30" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="R2" s="33"/>
       <c r="S2" s="33"/>
       <c r="T2" s="32"/>
       <c r="U2" s="16"/>
       <c r="V2" s="22" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="W2" s="23"/>
       <c r="X2" s="23"/>
       <c r="Y2" s="34"/>
       <c r="Z2" s="17"/>
       <c r="AA2" s="35" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="AB2" s="36"/>
       <c r="AC2" s="36"/>
@@ -1125,7 +1092,7 @@
       <c r="AG2" s="37"/>
       <c r="AH2" s="18"/>
       <c r="AI2" s="22" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="AJ2" s="23"/>
       <c r="AK2" s="23"/>
@@ -1140,19 +1107,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H3" s="19" t="s">
         <v>0</v>
@@ -1367,39 +1334,39 @@
     </row>
     <row r="5" spans="2:67" ht="30" customHeight="1">
       <c r="B5" s="6" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E5" s="7">
         <v>1</v>
       </c>
       <c r="F5" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G5" s="8">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1">
       <c r="B6" s="6" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E6" s="7">
         <v>1</v>
       </c>
       <c r="F6" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G6" s="8">
         <v>1</v>
@@ -1407,157 +1374,159 @@
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1">
       <c r="B7" s="6" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G7" s="8">
-        <v>0.35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1">
       <c r="B8" s="6" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E8" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F8" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G8" s="8">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:67" ht="30" customHeight="1">
       <c r="B9" s="6" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="7">
         <v>4</v>
       </c>
       <c r="F9" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G9" s="8">
-        <v>0.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1">
-      <c r="B10" s="6"/>
+      <c r="B10" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
+        <v>2</v>
+      </c>
+      <c r="E10" s="7">
+        <v>6</v>
+      </c>
+      <c r="F10" s="7">
         <v>3</v>
       </c>
-      <c r="E10" s="7">
-        <v>4</v>
-      </c>
-      <c r="F10" s="7">
-        <v>6</v>
-      </c>
       <c r="G10" s="8">
-        <v>0.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:67" ht="30" customHeight="1">
       <c r="B11" s="6" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D11" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E11" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F11" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G11" s="8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1">
       <c r="B12" s="6" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C12" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D12" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F12" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G12" s="8">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1">
       <c r="B13" s="6" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D13" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G13" s="8">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1">
       <c r="B14" s="6" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C14" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D14" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E14" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F14" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G14" s="8">
         <v>1</v>
@@ -1565,323 +1534,947 @@
     </row>
     <row r="15" spans="2:67" ht="30" customHeight="1">
       <c r="B15" s="6" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C15" s="9">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D15" s="7">
         <v>1</v>
       </c>
       <c r="E15" s="7">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F15" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G15" s="8">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:67" ht="30" customHeight="1">
       <c r="B16" s="6" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C16" s="7">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D16" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F16" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G16" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:67" ht="30" customHeight="1">
       <c r="B17" s="6" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C17" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D17" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E17" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F17" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G17" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1">
-      <c r="B18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="7">
-        <v>9</v>
-      </c>
-      <c r="D18" s="7">
-        <v>3</v>
-      </c>
-      <c r="E18" s="7">
-        <v>9</v>
-      </c>
-      <c r="F18" s="7">
-        <v>1</v>
-      </c>
-      <c r="G18" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1">
-      <c r="B19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>9</v>
-      </c>
-      <c r="D19" s="7">
-        <v>4</v>
-      </c>
-      <c r="E19" s="7">
-        <v>8</v>
-      </c>
-      <c r="F19" s="7">
-        <v>5</v>
-      </c>
-      <c r="G19" s="8">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1">
-      <c r="B20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="7">
-        <v>10</v>
-      </c>
-      <c r="D20" s="7">
-        <v>5</v>
-      </c>
-      <c r="E20" s="7">
-        <v>10</v>
-      </c>
-      <c r="F20" s="7">
-        <v>3</v>
-      </c>
-      <c r="G20" s="8">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1">
-      <c r="B21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="7">
-        <v>11</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2</v>
-      </c>
-      <c r="E21" s="7">
-        <v>11</v>
-      </c>
-      <c r="F21" s="7">
-        <v>5</v>
-      </c>
-      <c r="G21" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1">
-      <c r="B22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="7">
-        <v>12</v>
-      </c>
-      <c r="D22" s="7">
-        <v>6</v>
-      </c>
-      <c r="E22" s="7">
-        <v>12</v>
-      </c>
-      <c r="F22" s="7">
-        <v>7</v>
-      </c>
-      <c r="G22" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="30" customHeight="1">
-      <c r="B23" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="7">
-        <v>12</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1</v>
-      </c>
-      <c r="E23" s="7">
-        <v>12</v>
-      </c>
-      <c r="F23" s="7">
-        <v>5</v>
-      </c>
-      <c r="G23" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1">
-      <c r="B24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="7">
-        <v>14</v>
-      </c>
-      <c r="D24" s="7">
-        <v>5</v>
-      </c>
-      <c r="E24" s="7">
-        <v>14</v>
-      </c>
-      <c r="F24" s="7">
-        <v>6</v>
-      </c>
-      <c r="G24" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1">
-      <c r="B25" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>14</v>
-      </c>
-      <c r="D25" s="7">
-        <v>8</v>
-      </c>
-      <c r="E25" s="7">
-        <v>14</v>
-      </c>
-      <c r="F25" s="7">
-        <v>2</v>
-      </c>
-      <c r="G25" s="8">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="30" customHeight="1">
-      <c r="B26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="7">
-        <v>14</v>
-      </c>
-      <c r="D26" s="7">
-        <v>7</v>
-      </c>
-      <c r="E26" s="7">
-        <v>14</v>
-      </c>
-      <c r="F26" s="7">
-        <v>3</v>
-      </c>
-      <c r="G26" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1">
-      <c r="B27" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="7">
-        <v>15</v>
-      </c>
-      <c r="D27" s="7">
-        <v>4</v>
-      </c>
-      <c r="E27" s="7">
-        <v>15</v>
-      </c>
-      <c r="F27" s="7">
-        <v>8</v>
-      </c>
-      <c r="G27" s="8">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="30" customHeight="1">
-      <c r="B28" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="7">
-        <v>15</v>
-      </c>
-      <c r="D28" s="7">
-        <v>5</v>
-      </c>
-      <c r="E28" s="7">
-        <v>15</v>
-      </c>
-      <c r="F28" s="7">
-        <v>3</v>
-      </c>
-      <c r="G28" s="8">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="30" customHeight="1">
-      <c r="B29" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="7">
-        <v>15</v>
-      </c>
-      <c r="D29" s="7">
-        <v>8</v>
-      </c>
-      <c r="E29" s="7">
-        <v>15</v>
-      </c>
-      <c r="F29" s="7">
-        <v>5</v>
-      </c>
-      <c r="G29" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1">
-      <c r="B30" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="7">
-        <v>16</v>
-      </c>
-      <c r="D30" s="7">
-        <v>28</v>
-      </c>
-      <c r="E30" s="7">
-        <v>16</v>
-      </c>
-      <c r="F30" s="7">
-        <v>30</v>
-      </c>
-      <c r="G30" s="8">
-        <v>0.5</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:67" ht="30" customHeight="1">
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="38"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="38"/>
+      <c r="AE18" s="38"/>
+      <c r="AF18" s="38"/>
+      <c r="AG18" s="38"/>
+      <c r="AH18" s="38"/>
+      <c r="AI18" s="38"/>
+      <c r="AJ18" s="38"/>
+      <c r="AK18" s="38"/>
+      <c r="AL18" s="38"/>
+      <c r="AM18" s="38"/>
+      <c r="AN18" s="38"/>
+      <c r="AO18" s="38"/>
+      <c r="AP18" s="38"/>
+      <c r="AQ18" s="38"/>
+      <c r="AR18" s="38"/>
+      <c r="AS18" s="38"/>
+      <c r="AT18" s="38"/>
+      <c r="AU18" s="38"/>
+      <c r="AV18" s="38"/>
+      <c r="AW18" s="38"/>
+      <c r="AX18" s="38"/>
+      <c r="AY18" s="38"/>
+      <c r="AZ18" s="38"/>
+      <c r="BA18" s="38"/>
+      <c r="BB18" s="38"/>
+      <c r="BC18" s="38"/>
+      <c r="BD18" s="38"/>
+      <c r="BE18" s="38"/>
+      <c r="BF18" s="38"/>
+      <c r="BG18" s="38"/>
+      <c r="BH18" s="38"/>
+      <c r="BI18" s="38"/>
+      <c r="BJ18" s="38"/>
+      <c r="BK18" s="38"/>
+      <c r="BL18" s="38"/>
+      <c r="BM18" s="38"/>
+      <c r="BN18" s="38"/>
+      <c r="BO18" s="38"/>
+    </row>
+    <row r="19" spans="2:67" ht="30" customHeight="1">
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38"/>
+      <c r="AB19" s="38"/>
+      <c r="AC19" s="38"/>
+      <c r="AD19" s="38"/>
+      <c r="AE19" s="38"/>
+      <c r="AF19" s="38"/>
+      <c r="AG19" s="38"/>
+      <c r="AH19" s="38"/>
+      <c r="AI19" s="38"/>
+      <c r="AJ19" s="38"/>
+      <c r="AK19" s="38"/>
+      <c r="AL19" s="38"/>
+      <c r="AM19" s="38"/>
+      <c r="AN19" s="38"/>
+      <c r="AO19" s="38"/>
+      <c r="AP19" s="38"/>
+      <c r="AQ19" s="38"/>
+      <c r="AR19" s="38"/>
+      <c r="AS19" s="38"/>
+      <c r="AT19" s="38"/>
+      <c r="AU19" s="38"/>
+      <c r="AV19" s="38"/>
+      <c r="AW19" s="38"/>
+      <c r="AX19" s="38"/>
+      <c r="AY19" s="38"/>
+      <c r="AZ19" s="38"/>
+      <c r="BA19" s="38"/>
+      <c r="BB19" s="38"/>
+      <c r="BC19" s="38"/>
+      <c r="BD19" s="38"/>
+      <c r="BE19" s="38"/>
+      <c r="BF19" s="38"/>
+      <c r="BG19" s="38"/>
+      <c r="BH19" s="38"/>
+      <c r="BI19" s="38"/>
+      <c r="BJ19" s="38"/>
+      <c r="BK19" s="38"/>
+      <c r="BL19" s="38"/>
+      <c r="BM19" s="38"/>
+      <c r="BN19" s="38"/>
+      <c r="BO19" s="38"/>
+    </row>
+    <row r="20" spans="2:67" ht="30" customHeight="1">
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="38"/>
+      <c r="AB20" s="38"/>
+      <c r="AC20" s="38"/>
+      <c r="AD20" s="38"/>
+      <c r="AE20" s="38"/>
+      <c r="AF20" s="38"/>
+      <c r="AG20" s="38"/>
+      <c r="AH20" s="38"/>
+      <c r="AI20" s="38"/>
+      <c r="AJ20" s="38"/>
+      <c r="AK20" s="38"/>
+      <c r="AL20" s="38"/>
+      <c r="AM20" s="38"/>
+      <c r="AN20" s="38"/>
+      <c r="AO20" s="38"/>
+      <c r="AP20" s="38"/>
+      <c r="AQ20" s="38"/>
+      <c r="AR20" s="38"/>
+      <c r="AS20" s="38"/>
+      <c r="AT20" s="38"/>
+      <c r="AU20" s="38"/>
+      <c r="AV20" s="38"/>
+      <c r="AW20" s="38"/>
+      <c r="AX20" s="38"/>
+      <c r="AY20" s="38"/>
+      <c r="AZ20" s="38"/>
+      <c r="BA20" s="38"/>
+      <c r="BB20" s="38"/>
+      <c r="BC20" s="38"/>
+      <c r="BD20" s="38"/>
+      <c r="BE20" s="38"/>
+      <c r="BF20" s="38"/>
+      <c r="BG20" s="38"/>
+      <c r="BH20" s="38"/>
+      <c r="BI20" s="38"/>
+      <c r="BJ20" s="38"/>
+      <c r="BK20" s="38"/>
+      <c r="BL20" s="38"/>
+      <c r="BM20" s="38"/>
+      <c r="BN20" s="38"/>
+      <c r="BO20" s="38"/>
+    </row>
+    <row r="21" spans="2:67" ht="30" customHeight="1">
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="38"/>
+      <c r="X21" s="38"/>
+      <c r="Y21" s="38"/>
+      <c r="Z21" s="38"/>
+      <c r="AA21" s="38"/>
+      <c r="AB21" s="38"/>
+      <c r="AC21" s="38"/>
+      <c r="AD21" s="38"/>
+      <c r="AE21" s="38"/>
+      <c r="AF21" s="38"/>
+      <c r="AG21" s="38"/>
+      <c r="AH21" s="38"/>
+      <c r="AI21" s="38"/>
+      <c r="AJ21" s="38"/>
+      <c r="AK21" s="38"/>
+      <c r="AL21" s="38"/>
+      <c r="AM21" s="38"/>
+      <c r="AN21" s="38"/>
+      <c r="AO21" s="38"/>
+      <c r="AP21" s="38"/>
+      <c r="AQ21" s="38"/>
+      <c r="AR21" s="38"/>
+      <c r="AS21" s="38"/>
+      <c r="AT21" s="38"/>
+      <c r="AU21" s="38"/>
+      <c r="AV21" s="38"/>
+      <c r="AW21" s="38"/>
+      <c r="AX21" s="38"/>
+      <c r="AY21" s="38"/>
+      <c r="AZ21" s="38"/>
+      <c r="BA21" s="38"/>
+      <c r="BB21" s="38"/>
+      <c r="BC21" s="38"/>
+      <c r="BD21" s="38"/>
+      <c r="BE21" s="38"/>
+      <c r="BF21" s="38"/>
+      <c r="BG21" s="38"/>
+      <c r="BH21" s="38"/>
+      <c r="BI21" s="38"/>
+      <c r="BJ21" s="38"/>
+      <c r="BK21" s="38"/>
+      <c r="BL21" s="38"/>
+      <c r="BM21" s="38"/>
+      <c r="BN21" s="38"/>
+      <c r="BO21" s="38"/>
+    </row>
+    <row r="22" spans="2:67" ht="30" customHeight="1">
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="38"/>
+      <c r="X22" s="38"/>
+      <c r="Y22" s="38"/>
+      <c r="Z22" s="38"/>
+      <c r="AA22" s="38"/>
+      <c r="AB22" s="38"/>
+      <c r="AC22" s="38"/>
+      <c r="AD22" s="38"/>
+      <c r="AE22" s="38"/>
+      <c r="AF22" s="38"/>
+      <c r="AG22" s="38"/>
+      <c r="AH22" s="38"/>
+      <c r="AI22" s="38"/>
+      <c r="AJ22" s="38"/>
+      <c r="AK22" s="38"/>
+      <c r="AL22" s="38"/>
+      <c r="AM22" s="38"/>
+      <c r="AN22" s="38"/>
+      <c r="AO22" s="38"/>
+      <c r="AP22" s="38"/>
+      <c r="AQ22" s="38"/>
+      <c r="AR22" s="38"/>
+      <c r="AS22" s="38"/>
+      <c r="AT22" s="38"/>
+      <c r="AU22" s="38"/>
+      <c r="AV22" s="38"/>
+      <c r="AW22" s="38"/>
+      <c r="AX22" s="38"/>
+      <c r="AY22" s="38"/>
+      <c r="AZ22" s="38"/>
+      <c r="BA22" s="38"/>
+      <c r="BB22" s="38"/>
+      <c r="BC22" s="38"/>
+      <c r="BD22" s="38"/>
+      <c r="BE22" s="38"/>
+      <c r="BF22" s="38"/>
+      <c r="BG22" s="38"/>
+      <c r="BH22" s="38"/>
+      <c r="BI22" s="38"/>
+      <c r="BJ22" s="38"/>
+      <c r="BK22" s="38"/>
+      <c r="BL22" s="38"/>
+      <c r="BM22" s="38"/>
+      <c r="BN22" s="38"/>
+      <c r="BO22" s="38"/>
+    </row>
+    <row r="23" spans="2:67" ht="30" customHeight="1">
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="38"/>
+      <c r="X23" s="38"/>
+      <c r="Y23" s="38"/>
+      <c r="Z23" s="38"/>
+      <c r="AA23" s="38"/>
+      <c r="AB23" s="38"/>
+      <c r="AC23" s="38"/>
+      <c r="AD23" s="38"/>
+      <c r="AE23" s="38"/>
+      <c r="AF23" s="38"/>
+      <c r="AG23" s="38"/>
+      <c r="AH23" s="38"/>
+      <c r="AI23" s="38"/>
+      <c r="AJ23" s="38"/>
+      <c r="AK23" s="38"/>
+      <c r="AL23" s="38"/>
+      <c r="AM23" s="38"/>
+      <c r="AN23" s="38"/>
+      <c r="AO23" s="38"/>
+      <c r="AP23" s="38"/>
+      <c r="AQ23" s="38"/>
+      <c r="AR23" s="38"/>
+      <c r="AS23" s="38"/>
+      <c r="AT23" s="38"/>
+      <c r="AU23" s="38"/>
+      <c r="AV23" s="38"/>
+      <c r="AW23" s="38"/>
+      <c r="AX23" s="38"/>
+      <c r="AY23" s="38"/>
+      <c r="AZ23" s="38"/>
+      <c r="BA23" s="38"/>
+      <c r="BB23" s="38"/>
+      <c r="BC23" s="38"/>
+      <c r="BD23" s="38"/>
+      <c r="BE23" s="38"/>
+      <c r="BF23" s="38"/>
+      <c r="BG23" s="38"/>
+      <c r="BH23" s="38"/>
+      <c r="BI23" s="38"/>
+      <c r="BJ23" s="38"/>
+      <c r="BK23" s="38"/>
+      <c r="BL23" s="38"/>
+      <c r="BM23" s="38"/>
+      <c r="BN23" s="38"/>
+      <c r="BO23" s="38"/>
+    </row>
+    <row r="24" spans="2:67" ht="30" customHeight="1">
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="38"/>
+      <c r="AA24" s="38"/>
+      <c r="AB24" s="38"/>
+      <c r="AC24" s="38"/>
+      <c r="AD24" s="38"/>
+      <c r="AE24" s="38"/>
+      <c r="AF24" s="38"/>
+      <c r="AG24" s="38"/>
+      <c r="AH24" s="38"/>
+      <c r="AI24" s="38"/>
+      <c r="AJ24" s="38"/>
+      <c r="AK24" s="38"/>
+      <c r="AL24" s="38"/>
+      <c r="AM24" s="38"/>
+      <c r="AN24" s="38"/>
+      <c r="AO24" s="38"/>
+      <c r="AP24" s="38"/>
+      <c r="AQ24" s="38"/>
+      <c r="AR24" s="38"/>
+      <c r="AS24" s="38"/>
+      <c r="AT24" s="38"/>
+      <c r="AU24" s="38"/>
+      <c r="AV24" s="38"/>
+      <c r="AW24" s="38"/>
+      <c r="AX24" s="38"/>
+      <c r="AY24" s="38"/>
+      <c r="AZ24" s="38"/>
+      <c r="BA24" s="38"/>
+      <c r="BB24" s="38"/>
+      <c r="BC24" s="38"/>
+      <c r="BD24" s="38"/>
+      <c r="BE24" s="38"/>
+      <c r="BF24" s="38"/>
+      <c r="BG24" s="38"/>
+      <c r="BH24" s="38"/>
+      <c r="BI24" s="38"/>
+      <c r="BJ24" s="38"/>
+      <c r="BK24" s="38"/>
+      <c r="BL24" s="38"/>
+      <c r="BM24" s="38"/>
+      <c r="BN24" s="38"/>
+      <c r="BO24" s="38"/>
+    </row>
+    <row r="25" spans="2:67" ht="30" customHeight="1">
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="38"/>
+      <c r="X25" s="38"/>
+      <c r="Y25" s="38"/>
+      <c r="Z25" s="38"/>
+      <c r="AA25" s="38"/>
+      <c r="AB25" s="38"/>
+      <c r="AC25" s="38"/>
+      <c r="AD25" s="38"/>
+      <c r="AE25" s="38"/>
+      <c r="AF25" s="38"/>
+      <c r="AG25" s="38"/>
+      <c r="AH25" s="38"/>
+      <c r="AI25" s="38"/>
+      <c r="AJ25" s="38"/>
+      <c r="AK25" s="38"/>
+      <c r="AL25" s="38"/>
+      <c r="AM25" s="38"/>
+      <c r="AN25" s="38"/>
+      <c r="AO25" s="38"/>
+      <c r="AP25" s="38"/>
+      <c r="AQ25" s="38"/>
+      <c r="AR25" s="38"/>
+      <c r="AS25" s="38"/>
+      <c r="AT25" s="38"/>
+      <c r="AU25" s="38"/>
+      <c r="AV25" s="38"/>
+      <c r="AW25" s="38"/>
+      <c r="AX25" s="38"/>
+      <c r="AY25" s="38"/>
+      <c r="AZ25" s="38"/>
+      <c r="BA25" s="38"/>
+      <c r="BB25" s="38"/>
+      <c r="BC25" s="38"/>
+      <c r="BD25" s="38"/>
+      <c r="BE25" s="38"/>
+      <c r="BF25" s="38"/>
+      <c r="BG25" s="38"/>
+      <c r="BH25" s="38"/>
+      <c r="BI25" s="38"/>
+      <c r="BJ25" s="38"/>
+      <c r="BK25" s="38"/>
+      <c r="BL25" s="38"/>
+      <c r="BM25" s="38"/>
+      <c r="BN25" s="38"/>
+      <c r="BO25" s="38"/>
+    </row>
+    <row r="26" spans="2:67" ht="30" customHeight="1">
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="38"/>
+      <c r="AA26" s="38"/>
+      <c r="AB26" s="38"/>
+      <c r="AC26" s="38"/>
+      <c r="AD26" s="38"/>
+      <c r="AE26" s="38"/>
+      <c r="AF26" s="38"/>
+      <c r="AG26" s="38"/>
+      <c r="AH26" s="38"/>
+      <c r="AI26" s="38"/>
+      <c r="AJ26" s="38"/>
+      <c r="AK26" s="38"/>
+      <c r="AL26" s="38"/>
+      <c r="AM26" s="38"/>
+      <c r="AN26" s="38"/>
+      <c r="AO26" s="38"/>
+      <c r="AP26" s="38"/>
+      <c r="AQ26" s="38"/>
+      <c r="AR26" s="38"/>
+      <c r="AS26" s="38"/>
+      <c r="AT26" s="38"/>
+      <c r="AU26" s="38"/>
+      <c r="AV26" s="38"/>
+      <c r="AW26" s="38"/>
+      <c r="AX26" s="38"/>
+      <c r="AY26" s="38"/>
+      <c r="AZ26" s="38"/>
+      <c r="BA26" s="38"/>
+      <c r="BB26" s="38"/>
+      <c r="BC26" s="38"/>
+      <c r="BD26" s="38"/>
+      <c r="BE26" s="38"/>
+      <c r="BF26" s="38"/>
+      <c r="BG26" s="38"/>
+      <c r="BH26" s="38"/>
+      <c r="BI26" s="38"/>
+      <c r="BJ26" s="38"/>
+      <c r="BK26" s="38"/>
+      <c r="BL26" s="38"/>
+      <c r="BM26" s="38"/>
+      <c r="BN26" s="38"/>
+      <c r="BO26" s="38"/>
+    </row>
+    <row r="27" spans="2:67" ht="30" customHeight="1">
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="38"/>
+      <c r="X27" s="38"/>
+      <c r="Y27" s="38"/>
+      <c r="Z27" s="38"/>
+      <c r="AA27" s="38"/>
+      <c r="AB27" s="38"/>
+      <c r="AC27" s="38"/>
+      <c r="AD27" s="38"/>
+      <c r="AE27" s="38"/>
+      <c r="AF27" s="38"/>
+      <c r="AG27" s="38"/>
+      <c r="AH27" s="38"/>
+      <c r="AI27" s="38"/>
+      <c r="AJ27" s="38"/>
+      <c r="AK27" s="38"/>
+      <c r="AL27" s="38"/>
+      <c r="AM27" s="38"/>
+      <c r="AN27" s="38"/>
+      <c r="AO27" s="38"/>
+      <c r="AP27" s="38"/>
+      <c r="AQ27" s="38"/>
+      <c r="AR27" s="38"/>
+      <c r="AS27" s="38"/>
+      <c r="AT27" s="38"/>
+      <c r="AU27" s="38"/>
+      <c r="AV27" s="38"/>
+      <c r="AW27" s="38"/>
+      <c r="AX27" s="38"/>
+      <c r="AY27" s="38"/>
+      <c r="AZ27" s="38"/>
+      <c r="BA27" s="38"/>
+      <c r="BB27" s="38"/>
+      <c r="BC27" s="38"/>
+      <c r="BD27" s="38"/>
+      <c r="BE27" s="38"/>
+      <c r="BF27" s="38"/>
+      <c r="BG27" s="38"/>
+      <c r="BH27" s="38"/>
+      <c r="BI27" s="38"/>
+      <c r="BJ27" s="38"/>
+      <c r="BK27" s="38"/>
+      <c r="BL27" s="38"/>
+      <c r="BM27" s="38"/>
+      <c r="BN27" s="38"/>
+      <c r="BO27" s="38"/>
+    </row>
+    <row r="28" spans="2:67" ht="30" customHeight="1">
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="38"/>
+      <c r="T28" s="38"/>
+      <c r="U28" s="38"/>
+      <c r="V28" s="38"/>
+      <c r="W28" s="38"/>
+      <c r="X28" s="38"/>
+      <c r="Y28" s="38"/>
+      <c r="Z28" s="38"/>
+      <c r="AA28" s="38"/>
+      <c r="AB28" s="38"/>
+      <c r="AC28" s="38"/>
+      <c r="AD28" s="38"/>
+      <c r="AE28" s="38"/>
+      <c r="AF28" s="38"/>
+      <c r="AG28" s="38"/>
+      <c r="AH28" s="38"/>
+      <c r="AI28" s="38"/>
+      <c r="AJ28" s="38"/>
+      <c r="AK28" s="38"/>
+      <c r="AL28" s="38"/>
+      <c r="AM28" s="38"/>
+      <c r="AN28" s="38"/>
+      <c r="AO28" s="38"/>
+      <c r="AP28" s="38"/>
+      <c r="AQ28" s="38"/>
+      <c r="AR28" s="38"/>
+      <c r="AS28" s="38"/>
+      <c r="AT28" s="38"/>
+      <c r="AU28" s="38"/>
+      <c r="AV28" s="38"/>
+      <c r="AW28" s="38"/>
+      <c r="AX28" s="38"/>
+      <c r="AY28" s="38"/>
+      <c r="AZ28" s="38"/>
+      <c r="BA28" s="38"/>
+      <c r="BB28" s="38"/>
+      <c r="BC28" s="38"/>
+      <c r="BD28" s="38"/>
+      <c r="BE28" s="38"/>
+      <c r="BF28" s="38"/>
+      <c r="BG28" s="38"/>
+      <c r="BH28" s="38"/>
+      <c r="BI28" s="38"/>
+      <c r="BJ28" s="38"/>
+      <c r="BK28" s="38"/>
+      <c r="BL28" s="38"/>
+      <c r="BM28" s="38"/>
+      <c r="BN28" s="38"/>
+      <c r="BO28" s="38"/>
+    </row>
+    <row r="29" spans="2:67" ht="30" customHeight="1">
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="38"/>
+      <c r="U29" s="38"/>
+      <c r="V29" s="38"/>
+      <c r="W29" s="38"/>
+      <c r="X29" s="38"/>
+      <c r="Y29" s="38"/>
+      <c r="Z29" s="38"/>
+      <c r="AA29" s="38"/>
+      <c r="AB29" s="38"/>
+      <c r="AC29" s="38"/>
+      <c r="AD29" s="38"/>
+      <c r="AE29" s="38"/>
+      <c r="AF29" s="38"/>
+      <c r="AG29" s="38"/>
+      <c r="AH29" s="38"/>
+      <c r="AI29" s="38"/>
+      <c r="AJ29" s="38"/>
+      <c r="AK29" s="38"/>
+      <c r="AL29" s="38"/>
+      <c r="AM29" s="38"/>
+      <c r="AN29" s="38"/>
+      <c r="AO29" s="38"/>
+      <c r="AP29" s="38"/>
+      <c r="AQ29" s="38"/>
+      <c r="AR29" s="38"/>
+      <c r="AS29" s="38"/>
+      <c r="AT29" s="38"/>
+      <c r="AU29" s="38"/>
+      <c r="AV29" s="38"/>
+      <c r="AW29" s="38"/>
+      <c r="AX29" s="38"/>
+      <c r="AY29" s="38"/>
+      <c r="AZ29" s="38"/>
+      <c r="BA29" s="38"/>
+      <c r="BB29" s="38"/>
+      <c r="BC29" s="38"/>
+      <c r="BD29" s="38"/>
+      <c r="BE29" s="38"/>
+      <c r="BF29" s="38"/>
+      <c r="BG29" s="38"/>
+      <c r="BH29" s="38"/>
+      <c r="BI29" s="38"/>
+      <c r="BJ29" s="38"/>
+      <c r="BK29" s="38"/>
+      <c r="BL29" s="38"/>
+      <c r="BM29" s="38"/>
+      <c r="BN29" s="38"/>
+      <c r="BO29" s="38"/>
+    </row>
+    <row r="30" spans="2:67" ht="30" customHeight="1">
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="38"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="38"/>
+      <c r="T30" s="38"/>
+      <c r="U30" s="38"/>
+      <c r="V30" s="38"/>
+      <c r="W30" s="38"/>
+      <c r="X30" s="38"/>
+      <c r="Y30" s="38"/>
+      <c r="Z30" s="38"/>
+      <c r="AA30" s="38"/>
+      <c r="AB30" s="38"/>
+      <c r="AC30" s="38"/>
+      <c r="AD30" s="38"/>
+      <c r="AE30" s="38"/>
+      <c r="AF30" s="38"/>
+      <c r="AG30" s="38"/>
+      <c r="AH30" s="38"/>
+      <c r="AI30" s="38"/>
+      <c r="AJ30" s="38"/>
+      <c r="AK30" s="38"/>
+      <c r="AL30" s="38"/>
+      <c r="AM30" s="38"/>
+      <c r="AN30" s="38"/>
+      <c r="AO30" s="38"/>
+      <c r="AP30" s="38"/>
+      <c r="AQ30" s="38"/>
+      <c r="AR30" s="38"/>
+      <c r="AS30" s="38"/>
+      <c r="AT30" s="38"/>
+      <c r="AU30" s="38"/>
+      <c r="AV30" s="38"/>
+      <c r="AW30" s="38"/>
+      <c r="AX30" s="38"/>
+      <c r="AY30" s="38"/>
+      <c r="AZ30" s="38"/>
+      <c r="BA30" s="38"/>
+      <c r="BB30" s="38"/>
+      <c r="BC30" s="38"/>
+      <c r="BD30" s="38"/>
+      <c r="BE30" s="38"/>
+      <c r="BF30" s="38"/>
+      <c r="BG30" s="38"/>
+      <c r="BH30" s="38"/>
+      <c r="BI30" s="38"/>
+      <c r="BJ30" s="38"/>
+      <c r="BK30" s="38"/>
+      <c r="BL30" s="38"/>
+      <c r="BM30" s="38"/>
+      <c r="BN30" s="38"/>
+      <c r="BO30" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="13">
